--- a/florida_hurricanes.xlsx
+++ b/florida_hurricanes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alona\Documents\GitHub\Hurricane_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CB257E-BC55-4262-8C89-1C46649E98A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E84116D-9629-4209-BB91-3226635D6F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{08DB883B-DBBF-4581-99E8-A1139AD2C981}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{08DB883B-DBBF-4581-99E8-A1139AD2C981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Great Middle Florida</t>
   </si>
@@ -44,16 +44,10 @@
     <t>Great Miami</t>
   </si>
   <si>
-    <t>September 18–20</t>
-  </si>
-  <si>
     <t>Okeechobee</t>
   </si>
   <si>
     <t>Labor Day</t>
-  </si>
-  <si>
-    <t>September 21–22</t>
   </si>
   <si>
     <t>Easy</t>
@@ -204,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -212,13 +206,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,36 +534,39 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.109375" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>44796</v>
       </c>
       <c r="D2" s="2">
@@ -577,16 +575,16 @@
       <c r="E2" s="2">
         <v>100</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>44790</v>
       </c>
       <c r="D3" s="2">
@@ -595,16 +593,16 @@
       <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>44841</v>
       </c>
       <c r="D4" s="2">
@@ -613,16 +611,16 @@
       <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>44837</v>
       </c>
       <c r="D5" s="2">
@@ -631,16 +629,16 @@
       <c r="E5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>44814</v>
       </c>
       <c r="D6" s="2">
@@ -649,16 +647,16 @@
       <c r="E6" s="2">
         <v>110</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>44789</v>
       </c>
       <c r="D7" s="2">
@@ -667,16 +665,16 @@
       <c r="E7" s="2">
         <v>110</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>44843</v>
       </c>
       <c r="D8" s="2">
@@ -685,16 +683,16 @@
       <c r="E8" s="2">
         <v>105</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>44833</v>
       </c>
       <c r="D9" s="2">
@@ -703,16 +701,16 @@
       <c r="E9" s="2">
         <v>110</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>44852</v>
       </c>
       <c r="D10" s="2">
@@ -721,16 +719,16 @@
       <c r="E10" s="2">
         <v>105</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>44845</v>
       </c>
       <c r="D11" s="2">
@@ -739,16 +737,16 @@
       <c r="E11" s="2">
         <v>100</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>44833</v>
       </c>
       <c r="D12" s="2">
@@ -757,16 +755,16 @@
       <c r="E12" s="2">
         <v>100</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>44814</v>
       </c>
       <c r="D13" s="2">
@@ -775,17 +773,17 @@
       <c r="E13" s="2">
         <v>130</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
+      <c r="C14" s="6">
+        <v>44823</v>
       </c>
       <c r="D14" s="2">
         <v>1926</v>
@@ -793,16 +791,16 @@
       <c r="E14" s="2">
         <v>125</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>44821</v>
       </c>
       <c r="D15" s="2">
@@ -811,16 +809,16 @@
       <c r="E15" s="2">
         <v>125</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>44808</v>
       </c>
       <c r="D16" s="2">
@@ -829,16 +827,16 @@
       <c r="E16" s="2">
         <v>110</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>44807</v>
       </c>
       <c r="D17" s="2">
@@ -847,16 +845,16 @@
       <c r="E17" s="2">
         <v>160</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>44852</v>
       </c>
       <c r="D18" s="2">
@@ -865,16 +863,16 @@
       <c r="E18" s="2">
         <v>105</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>44819</v>
       </c>
       <c r="D19" s="2">
@@ -883,16 +881,16 @@
       <c r="E19" s="2">
         <v>115</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>44821</v>
       </c>
       <c r="D20" s="2">
@@ -901,17 +899,17 @@
       <c r="E20" s="2">
         <v>115</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
+      <c r="C21" s="6">
+        <v>44825</v>
       </c>
       <c r="D21" s="2">
         <v>1948</v>
@@ -919,16 +917,16 @@
       <c r="E21" s="2">
         <v>115</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>44799</v>
       </c>
       <c r="D22" s="2">
@@ -937,16 +935,16 @@
       <c r="E22" s="2">
         <v>115</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>44809</v>
       </c>
       <c r="D23" s="2">
@@ -955,16 +953,16 @@
       <c r="E23" s="2">
         <v>105</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>44852</v>
       </c>
       <c r="D24" s="2">
@@ -973,16 +971,16 @@
       <c r="E24" s="2">
         <v>115</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>9</v>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>44814</v>
       </c>
       <c r="D25" s="2">
@@ -991,16 +989,16 @@
       <c r="E25" s="2">
         <v>125</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>44812</v>
       </c>
       <c r="D26" s="2">
@@ -1009,16 +1007,16 @@
       <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>44720</v>
       </c>
       <c r="D27" s="2">
@@ -1027,16 +1025,16 @@
       <c r="E27" s="2">
         <v>125</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>44827</v>
       </c>
       <c r="D28" s="2">
@@ -1045,16 +1043,16 @@
       <c r="E28" s="2">
         <v>110</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>13</v>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>44806</v>
       </c>
       <c r="D29" s="2">
@@ -1063,16 +1061,16 @@
       <c r="E29" s="2">
         <v>100</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>44797</v>
       </c>
       <c r="D30" s="2">
@@ -1081,16 +1079,16 @@
       <c r="E30" s="2">
         <v>145</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>15</v>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>44838</v>
       </c>
       <c r="D31" s="2">
@@ -1099,16 +1097,16 @@
       <c r="E31" s="2">
         <v>100</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>44786</v>
       </c>
       <c r="D32" s="2">
@@ -1117,16 +1115,16 @@
       <c r="E32" s="2">
         <v>130</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>44820</v>
       </c>
       <c r="D33" s="2">
@@ -1135,16 +1133,16 @@
       <c r="E33" s="2">
         <v>105</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>18</v>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>44830</v>
       </c>
       <c r="D34" s="2">
@@ -1153,16 +1151,16 @@
       <c r="E34" s="2">
         <v>105</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>19</v>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>44752</v>
       </c>
       <c r="D35" s="2">
@@ -1171,16 +1169,16 @@
       <c r="E35" s="2">
         <v>105</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>20</v>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>44858</v>
       </c>
       <c r="D36" s="2">
@@ -1189,16 +1187,16 @@
       <c r="E36" s="2">
         <v>105</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>21</v>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="6">
         <v>44814</v>
       </c>
       <c r="D37" s="2">
@@ -1207,16 +1205,16 @@
       <c r="E37" s="2">
         <v>115</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>22</v>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6">
         <v>44844</v>
       </c>
       <c r="D38" s="2">
@@ -1225,16 +1223,16 @@
       <c r="E38" s="2">
         <v>140</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>23</v>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6">
         <v>44832</v>
       </c>
       <c r="D39" s="2">
@@ -1243,7 +1241,7 @@
       <c r="E39" s="2">
         <v>130</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
